--- a/smile.xlsx
+++ b/smile.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\private\homepage\opendot\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD547453-F5B5-4578-AF4C-AB1CD267990E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C91AC5-EB15-4063-9D3B-9BB035ECBEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{E2F18BE7-5F50-4E4A-81EE-F0A732C4FD36}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{E2F18BE7-5F50-4E4A-81EE-F0A732C4FD36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="O" sheetId="2" r:id="rId2"/>
-    <sheet name="P" sheetId="3" r:id="rId3"/>
-    <sheet name="E" sheetId="4" r:id="rId4"/>
-    <sheet name="N" sheetId="5" r:id="rId5"/>
-    <sheet name="D" sheetId="6" r:id="rId6"/>
-    <sheet name="T" sheetId="7" r:id="rId7"/>
-    <sheet name="OPENDOT" sheetId="8" r:id="rId8"/>
+    <sheet name="bike" sheetId="9" r:id="rId2"/>
+    <sheet name="O" sheetId="2" r:id="rId3"/>
+    <sheet name="P" sheetId="3" r:id="rId4"/>
+    <sheet name="E" sheetId="4" r:id="rId5"/>
+    <sheet name="N" sheetId="5" r:id="rId6"/>
+    <sheet name="D" sheetId="6" r:id="rId7"/>
+    <sheet name="T" sheetId="7" r:id="rId8"/>
+    <sheet name="OPENDOT" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -535,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3EF0FA-750D-4096-8AE4-A33C3F47CDB9}">
   <dimension ref="A1:CB59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -1834,6 +1835,298 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FC4953-E74D-4824-BE63-FE8E8A6AC7FA}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB347E0-9B6F-42C9-A5EA-A8A49BA270B4}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
@@ -2439,7 +2732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BE8A02-DA7A-4733-BB19-04CA5B62A919}">
   <dimension ref="B1:O16"/>
   <sheetViews>
@@ -2665,7 +2958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38536864-F789-4BA2-814F-47B707E522A1}">
   <dimension ref="B1:Q16"/>
   <sheetViews>
@@ -2967,7 +3260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36973E8-662B-49F8-AD39-949F1E8C4FC5}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -3272,7 +3565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B82CE8-44B5-4385-B7CE-118E648174E5}">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -3643,7 +3936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C3A248-0420-4DF5-990B-E5C0BD96B16F}">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -3970,7 +4263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCAC260-309A-47C7-A28A-162BB3E6EFF9}">
   <dimension ref="A1:CW16"/>
   <sheetViews>

--- a/smile.xlsx
+++ b/smile.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\private\homepage\opendot\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C91AC5-EB15-4063-9D3B-9BB035ECBEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A4B75-802F-4DE9-9B67-2F3E69A3329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{E2F18BE7-5F50-4E4A-81EE-F0A732C4FD36}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="8" xr2:uid="{E2F18BE7-5F50-4E4A-81EE-F0A732C4FD36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="bike" sheetId="9" r:id="rId2"/>
-    <sheet name="O" sheetId="2" r:id="rId3"/>
-    <sheet name="P" sheetId="3" r:id="rId4"/>
-    <sheet name="E" sheetId="4" r:id="rId5"/>
-    <sheet name="N" sheetId="5" r:id="rId6"/>
-    <sheet name="D" sheetId="6" r:id="rId7"/>
-    <sheet name="T" sheetId="7" r:id="rId8"/>
-    <sheet name="OPENDOT" sheetId="8" r:id="rId9"/>
+    <sheet name="O" sheetId="2" r:id="rId2"/>
+    <sheet name="P" sheetId="3" r:id="rId3"/>
+    <sheet name="E" sheetId="4" r:id="rId4"/>
+    <sheet name="N" sheetId="5" r:id="rId5"/>
+    <sheet name="D" sheetId="6" r:id="rId6"/>
+    <sheet name="T" sheetId="7" r:id="rId7"/>
+    <sheet name="OPENDOT" sheetId="8" r:id="rId8"/>
+    <sheet name="bike" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1835,298 +1835,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FC4953-E74D-4824-BE63-FE8E8A6AC7FA}">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
-  <sheetData>
-    <row r="1" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB347E0-9B6F-42C9-A5EA-A8A49BA270B4}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
@@ -2732,7 +2440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BE8A02-DA7A-4733-BB19-04CA5B62A919}">
   <dimension ref="B1:O16"/>
   <sheetViews>
@@ -2958,7 +2666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38536864-F789-4BA2-814F-47B707E522A1}">
   <dimension ref="B1:Q16"/>
   <sheetViews>
@@ -3260,7 +2968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36973E8-662B-49F8-AD39-949F1E8C4FC5}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -3565,7 +3273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B82CE8-44B5-4385-B7CE-118E648174E5}">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -3936,7 +3644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C3A248-0420-4DF5-990B-E5C0BD96B16F}">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -4263,7 +3971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCAC260-309A-47C7-A28A-162BB3E6EFF9}">
   <dimension ref="A1:CW16"/>
   <sheetViews>
@@ -5831,4 +5539,552 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FC4953-E74D-4824-BE63-FE8E8A6AC7FA}">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:AL16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+    </row>
+    <row r="2" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+    </row>
+    <row r="3" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+    </row>
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+    </row>
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+    </row>
+    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+    </row>
+    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+    </row>
+    <row r="8" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="2"/>
+    </row>
+    <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+    </row>
+    <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+    </row>
+    <row r="11" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+    </row>
+    <row r="12" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+    </row>
+    <row r="13" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+    </row>
+    <row r="14" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="2"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="2"/>
+    </row>
+    <row r="15" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="2"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="2"/>
+    </row>
+    <row r="16" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="2"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>